--- a/static/schedule-courses/Horario 1-2024 - 2559218.xlsx
+++ b/static/schedule-courses/Horario 1-2024 - 2559218.xlsx
@@ -520,6 +520,16 @@
           <t>2559218</t>
         </is>
       </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>Instructor titular:</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LILIANA MARÍA GALEANO ZEA </t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -581,14 +591,14 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>Proyecto 2 + Manual Técnico 
+          <t>Proyecto 2  + Manual Técnico 
  YEISON BARRIOS FUNIELES 
  801</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>Proyecto 2 + Manual Técnico 
+          <t>Proyecto 2  + Manual Técnico 
  YEISON BARRIOS FUNIELES 
  801</t>
         </is>
@@ -602,14 +612,14 @@
       </c>
       <c r="E9" s="3" t="inlineStr">
         <is>
-          <t>Proyecto 2 + Manual Técnico 
+          <t>Proyecto 2  + Manual Técnico 
  YEISON BARRIOS FUNIELES 
  801</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t>Proyecto 2 + Manual Técnico 
+          <t>Proyecto 2  + Manual Técnico 
  YEISON BARRIOS FUNIELES 
  801</t>
         </is>
@@ -624,14 +634,14 @@
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Proyecto 2 + Manual Técnico 
+          <t>Proyecto 2  + Manual Técnico 
  YEISON BARRIOS FUNIELES 
  801</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>Proyecto 2 + Manual Técnico 
+          <t>Proyecto 2  + Manual Técnico 
  YEISON BARRIOS FUNIELES 
  801</t>
         </is>
@@ -645,14 +655,14 @@
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>Proyecto 2 + Manual Técnico 
+          <t>Proyecto 2  + Manual Técnico 
  YEISON BARRIOS FUNIELES 
  801</t>
         </is>
       </c>
       <c r="F10" s="3" t="inlineStr">
         <is>
-          <t>Proyecto 2 + Manual Técnico 
+          <t>Proyecto 2  + Manual Técnico 
  YEISON BARRIOS FUNIELES 
  801</t>
         </is>
@@ -995,7 +1005,7 @@
     <row r="28">
       <c r="A28" s="6" t="inlineStr">
         <is>
-          <t>Proyecto 2 + Manual Técnico</t>
+          <t>Proyecto 2  + Manual Técnico</t>
         </is>
       </c>
       <c r="B28" s="6" t="inlineStr">
